--- a/Experiment Results.xlsx
+++ b/Experiment Results.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OMSA\ISyE6748_practicum_publish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87651C79-2339-43C6-9C1E-2C0A11E6540C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DC90D8-5FDE-491D-9642-D4429BF5585D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F4608C8-C8BB-4F4C-BC66-6EC545BA6D5A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BASELINE" sheetId="1" r:id="rId1"/>
+    <sheet name="MARS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
   <si>
     <t>LABEL</t>
   </si>
@@ -81,6 +83,12 @@
   </si>
   <si>
     <t>BASELINE USING FASHION MNIST</t>
+  </si>
+  <si>
+    <t>MARS TENSOR IMAGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -458,7 +466,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,6 +814,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="B18:D18"/>
@@ -813,8 +823,275 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="H3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4186C9-EC76-40F4-A96A-AFD7F228B513}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
